--- a/数据整理/stocks/A股/深证主板/002841-视源股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002841-视源股份.xlsx
@@ -451,883 +451,1193 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>160.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.9931</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>126.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.5644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.3450</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>107.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.9258</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>106.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.0311</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>117.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.7815</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>105.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.2283</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>519732</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>交银定期支付双息平衡混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>69.08</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>5.14</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.1603</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001500</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泓德远见回报混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.9520</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>62.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.8498</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.6246</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>49.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3811</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>46.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.2702</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.2199</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>38.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8034</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7761</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>64.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6074</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0531</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8334</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7822</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519688</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3665</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519736</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银新成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>89.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008507</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>交银施罗德内核驱动混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007316</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>交银施罗德可转债债券A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>22.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007317</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>交银施罗德可转债债券C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>22.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>260101</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城优选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>77.26</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>519700</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>交银主题优选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>75.68</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>260111</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城公司治理混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>163810</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中银价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>76.72</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010003</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010004</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>159906</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成深证成长40ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>98.68</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>501087</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>交银施罗德瑞丰三年封闭运作混合型</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>501092</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>交银施罗德瑞思三年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002334</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002335</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>590008</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中邮战略新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>000805</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中银新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>86.01</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004965</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>泓德致远混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>49.54</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>004966</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>泓德致远混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>49.54</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001975</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>景顺长城环保优势股票</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>501071</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>泓德三年运作丰泽封闭</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005395</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>泓德臻远回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>519772</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>交银新生活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>87.66</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006435</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>景顺长城创新成长混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>008545</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>泓德丰润三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>7.58</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009026</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中银高质量发展机遇混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>88.13</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009376</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>景顺长城成长领航混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1337,7 +1647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1358,15 +1668,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003238</t>
+          <t>519772</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华外延增长主题灵活配置混合</t>
+          <t>交银新生活力灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>148.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.9346</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003501</t>
+          <t>008545</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
+          <t>泓德丰润三年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.21</t>
+          <t>117.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.8447</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519732</t>
+          <t>005395</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银定期支付双息平衡混合</t>
+          <t>泓德臻远回报灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>107.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.6273</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001500</t>
+          <t>008507</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泓德远见回报混合</t>
+          <t>交银施罗德内核驱动混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>131.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.77</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>9.0984</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519688</t>
+          <t>001500</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银精选混合</t>
+          <t>泓德远见回报混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>76.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.5082</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1528,15 +1898,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>151.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>91.51</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.37</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.6140</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002334</t>
+          <t>519688</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
+          <t>交银精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>128.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.6280</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002335</t>
+          <t>010864</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
+          <t>泓德卓远混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>66.11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.4607</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501071</t>
+          <t>519732</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泓德三年运作丰泽封闭</t>
+          <t>交银定期支付双息平衡混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>86.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.70</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>66.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.8205</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>260101</t>
+          <t>004965</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城优选混合</t>
+          <t>泓德致远混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>76.66</t>
+          <t>53.54</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>49.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.6098</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006181</t>
+          <t>001975</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>格林伯锐灵活配置混合A</t>
+          <t>景顺长城环保优势股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>49.57</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.0535</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006182</t>
+          <t>260101</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>格林伯锐灵活配置混合C</t>
+          <t>景顺长城优选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>50.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6149</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006279</t>
+          <t>501071</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中金瑞祥灵活配置混合A</t>
+          <t>泓德三年运作丰泽封闭</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>79.22</t>
+          <t>22.80</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.2116</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006280</t>
+          <t>006435</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中金瑞祥灵活配置混合C</t>
+          <t>景顺长城创新成长混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>79.22</t>
+          <t>31.57</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.7900</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005395</t>
+          <t>010865</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>泓德臻远回报灵活配置混合</t>
+          <t>泓德卓远混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>20.99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.92</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7338</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>165522</t>
+          <t>010003</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>信诚中证TMT产业主题指数（LOF）</t>
+          <t>景顺长城电子信息产业股票A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7094</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>165524</t>
+          <t>009376</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>信诚中证智能家居指数（LOF）</t>
+          <t>景顺长城成长领航混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>23.50</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4452</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006157</t>
+          <t>004966</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>财通量化核心优选混合</t>
+          <t>泓德致远混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>11.87</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>49.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0220</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>010004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>景顺长城电子信息产业股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>90.58</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4488</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010003</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票A</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010004</t>
+          <t>006181</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票C</t>
+          <t>格林伯锐灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006346</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>安信量化优选股票A</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006347</t>
+          <t>159906</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>安信量化优选股票C</t>
+          <t>大成深证成长40ETF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>89.93</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>006435</t>
+          <t>005090</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>景顺长城创新成长混合</t>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>91.69</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>006992</t>
+          <t>001571</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>嘉合锦创优势精选混合</t>
+          <t>嘉合磐石混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>82.86</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>005091</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>010864</t>
+          <t>001572</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>泓德卓远混合A</t>
+          <t>嘉合磐石混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010865</t>
+          <t>003238</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>泓德卓远混合C</t>
+          <t>新华外延增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>8.26</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>007613</t>
+          <t>003501</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>嘉合医疗健康混合</t>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>70.30</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>10</v>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>001571</t>
+          <t>007613</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>嘉合磐石混合A</t>
+          <t>嘉合医疗健康混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>23.60</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001572</t>
+          <t>165522</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>嘉合磐石混合C</t>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>23.60</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>3</v>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -2246,25 +2876,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>159906</t>
+          <t>165524</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>大成深证成长40ETF</t>
+          <t>信诚中证智能家居指数（LOF）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>97.95</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>519772</t>
+          <t>008890</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>交银新生活力灵活配置混合</t>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>89.85</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>4</v>
+          <t>41.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>001975</t>
+          <t>002334</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>景顺长城环保优势股票</t>
+          <t>汇丰晋信大盘波动精选股票A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>005090</t>
+          <t>006346</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+          <t>安信量化优选股票A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>80.21</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>005091</t>
+          <t>006182</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+          <t>格林伯锐灵活配置混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>80.21</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>008890</t>
+          <t>006279</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
+          <t>中金瑞祥灵活配置混合A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>41.82</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>008507</t>
+          <t>006992</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>交银施罗德内核驱动混合</t>
+          <t>嘉合锦创优势精选混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>5</v>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>008545</t>
+          <t>006157</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>泓德丰润三年持有期混合</t>
+          <t>财通量化核心优选混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>004965</t>
+          <t>006347</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>泓德致远混合A</t>
+          <t>安信量化优选股票C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>49.70</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>8.61</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>004966</t>
+          <t>002335</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>泓德致远混合C</t>
+          <t>汇丰晋信大盘波动精选股票C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>49.70</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>8.61</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -2526,26 +3256,30 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>009376</t>
+          <t>006280</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>景顺长城成长领航混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>2</v>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002841-视源股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002841-视源股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3264,7 +3265,6 @@
           <t>中金瑞祥灵活配置混合C</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>79.22</t>
@@ -3279,6 +3279,1506 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>128.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.5814</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>163.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.2904</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>125.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.2899</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>116.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>9.2681</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.4474</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>131.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>8.1407</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.3394</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.4425</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>70.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5.2081</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.2480</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.3965</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>101.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.1982</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000118</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>168.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.8263</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>65.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.7421</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>59.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.3487</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.9989</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6317</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>59.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5915</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5698</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>27.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4083</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.4058</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2599</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0141</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9841</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5717</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3926</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3918</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3645</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000119</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发聚鑫债券C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2631</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002841-视源股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002841-视源股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4785,4 +4786,1010 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7840</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.8860</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>129.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.1746</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.1020</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>56.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.5281</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>55.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.2301</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>96.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.8829</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.8686</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>60.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.4510</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>57.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.5477</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.4896</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>54.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>63.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3968</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3775</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6769</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3813</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3195</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2705</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6912</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3986</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3490</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002841-视源股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002841-视源股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5792,4 +5793,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>62.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>107.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>85.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002841-视源股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002841-视源股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5801,7 +5802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5812,17 +5813,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5832,14 +5853,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>62.24</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>111.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.9493</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5848,14 +5891,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>107.9</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.3017</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5864,14 +5929,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92.7</v>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.1790</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5880,13 +5967,1101 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8948</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>52.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7952</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>73.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.7681</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.0850</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>49.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.6988</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2329</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0930</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4414</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1859</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1257</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>50.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9578</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7431</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7183</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5315</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5048</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4923</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>107.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>30</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>85.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002841-视源股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002841-视源股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6960,7 +6961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6971,17 +6972,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6991,14 +7012,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.65</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4156</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -7007,14 +7050,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>62.24</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1481</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7023,14 +7088,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>107.9</v>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -7039,14 +7126,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>42</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92.7</v>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9470</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -7055,13 +7164,1003 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3839</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2604</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1439</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7629</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>46.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2555</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2141</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8085</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7472</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4706</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3937</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3503</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>46.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>107.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D6" t="n">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>30</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>85.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002841-视源股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002841-视源股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,37 +467,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -507,36 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519772</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银新生活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>160.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.66</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>9.9931</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.66</v>
       </c>
     </row>
     <row r="3">
@@ -545,36 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008545</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泓德丰润三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>126.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>9.5644</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50.65</v>
       </c>
     </row>
     <row r="4">
@@ -583,36 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005395</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泓德臻远回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>120.58</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>9.3450</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>62.24</v>
       </c>
     </row>
     <row r="5">
@@ -621,36 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001500</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泓德远见回报混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>107.80</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>8.9258</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>107.9</v>
       </c>
     </row>
     <row r="6">
@@ -659,36 +551,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008507</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>交银施罗德内核驱动混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>106.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>7.0311</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D6" t="n">
+        <v>92.7</v>
       </c>
     </row>
     <row r="7">
@@ -697,948 +567,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519736</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>交银新成长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>117.99</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>5.7815</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519688</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>交银精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>105.41</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>5.2283</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519732</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>交银定期支付双息平衡混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>80.94</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>69.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>4.1603</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004965</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泓德致远混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>59.97</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>49.54</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>3.9520</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001975</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城环保优势股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>62.91</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2.8498</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>260101</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>景顺长城优选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>63.86</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>77.26</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2.6246</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501087</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>交银施罗德瑞丰三年封闭运作混合型</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>49.71</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2.3811</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010003</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>46.33</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2.2702</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501071</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泓德三年运作丰泽封闭</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>28.10</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.23</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2.2199</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009376</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>景顺长城成长领航混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>38.37</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.8034</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006435</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>景顺长城创新成长混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1.7761</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>501092</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>交银施罗德瑞思三年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>64.04</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1.6074</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>590008</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中邮战略新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>17.94</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1.0531</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>519700</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>交银主题优选混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>31.69</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>75.68</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.8334</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004966</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>泓德致远混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>11.87</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>49.54</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.7822</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010004</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>景顺长城电子信息产业股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.69</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.3665</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>000805</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中银新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>86.01</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1546</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>260111</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>景顺长城公司治理混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1059</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>163810</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中银价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>76.72</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0706</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009026</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>中银高质量发展机遇混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>88.13</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0646</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>159906</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>大成深证成长40ETF</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>98.68</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0613</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007316</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>交银施罗德可转债债券A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>22.01</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>002334</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>007317</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>交银施罗德可转债债券C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>22.01</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002335</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>85.02</v>
       </c>
     </row>
   </sheetData>
@@ -1652,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1673,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1703,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519772</t>
+          <t>008545</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银新生活力灵活配置混合</t>
+          <t>泓德丰润三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>148.77</t>
+          <t>84.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.85</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>7.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.9346</t>
+          <t>6.4156</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1741,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008545</t>
+          <t>011058</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泓德丰润三年持有期混合</t>
+          <t>景顺长城成长龙头一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>117.24</t>
+          <t>69.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>88.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.8447</t>
+          <t>4.1481</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1779,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005395</t>
+          <t>001975</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泓德臻远回报灵活配置混合</t>
+          <t>景顺长城环保优势股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>107.13</t>
+          <t>60.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10.6273</t>
+          <t>3.2798</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1817,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008507</t>
+          <t>260101</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银施罗德内核驱动混合</t>
+          <t>景顺长城优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>131.67</t>
+          <t>60.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.00</t>
+          <t>77.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9.0984</t>
+          <t>2.9470</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1855,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001500</t>
+          <t>010864</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泓德远见回报混合</t>
+          <t>泓德卓远混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>76.85</t>
+          <t>39.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7.5082</t>
+          <t>2.3839</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1893,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519736</t>
+          <t>005395</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银新成长混合</t>
+          <t>泓德臻远回报灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>151.35</t>
+          <t>33.94</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.51</t>
+          <t>93.62</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.6140</t>
+          <t>2.2604</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1931,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519688</t>
+          <t>006435</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交银精选混合</t>
+          <t>景顺长城创新成长混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>128.20</t>
+          <t>41.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.77</t>
+          <t>93.22</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5.6280</t>
+          <t>2.1439</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1969,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010864</t>
+          <t>001500</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泓德卓远混合A</t>
+          <t>泓德远见回报混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>66.11</t>
+          <t>26.71</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5.4607</t>
+          <t>1.7629</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2007,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519732</t>
+          <t>004965</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>交银定期支付双息平衡混合</t>
+          <t>泓德致远混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.70</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>46.32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4.8205</t>
+          <t>1.2555</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2045,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004965</t>
+          <t>010003</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泓德致远混合A</t>
+          <t>景顺长城电子信息产业股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>53.54</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>49.70</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4.6098</t>
+          <t>1.2141</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2083,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001975</t>
+          <t>009376</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>景顺长城环保优势股票</t>
+          <t>景顺长城成长领航混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>49.57</t>
+          <t>15.37</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.0535</t>
+          <t>0.8085</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -2121,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>260101</t>
+          <t>010865</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>景顺长城优选混合</t>
+          <t>泓德卓远混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>50.19</t>
+          <t>12.25</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>76.66</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2.6149</t>
+          <t>0.7472</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -2159,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501071</t>
+          <t>011059</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>泓德三年运作丰泽封闭</t>
+          <t>景顺长城成长龙头一年持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>22.80</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>88.30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.2116</t>
+          <t>0.4706</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -2197,36 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006435</t>
+          <t>010004</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>景顺长城创新成长混合</t>
+          <t>景顺长城电子信息产业股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>31.57</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91.69</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.7900</t>
+          <t>0.3937</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -2235,36 +1171,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010865</t>
+          <t>513360</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>泓德卓远混合C</t>
+          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>20.99</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>99.49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.7338</t>
+          <t>0.3503</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -2273,36 +1209,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010003</t>
+          <t>162204</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票A</t>
+          <t>泰达宏利行业精选混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>28.49</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>75.56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.7094</t>
+          <t>0.2381</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2311,32 +1247,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009376</t>
+          <t>004966</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>景顺长城成长领航混合</t>
+          <t>泓德致远混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23.50</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>46.32</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.4452</t>
+          <t>0.1743</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -2349,36 +1285,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>004966</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>泓德致远混合C</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11.87</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>49.70</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.0220</t>
+          <t>0.1512</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2387,36 +1323,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010004</t>
+          <t>008988</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票C</t>
+          <t>大成科技创新混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>91.66</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.4488</t>
+          <t>0.1306</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2425,36 +1361,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>003501</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>90.58</t>
+          <t>73.79</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0921</t>
+          <t>0.1060</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2463,36 +1399,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006181</t>
+          <t>005495</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>格林伯锐灵活配置混合A</t>
+          <t>创金合信科技成长主题股票A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>84.91</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0743</t>
+          <t>0.0702</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2501,36 +1437,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>673141</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>西部利得景程灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>86.50</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0651</t>
+          <t>0.0679</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -2539,36 +1475,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>159906</t>
+          <t>008989</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大成深证成长40ETF</t>
+          <t>大成科技创新混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>97.95</t>
+          <t>91.66</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0547</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2577,36 +1513,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005090</t>
+          <t>159725</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>80.21</t>
+          <t>98.18</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0568</t>
+          <t>0.0264</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -2615,36 +1551,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001571</t>
+          <t>002244</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>嘉合磐石混合A</t>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>23.60</t>
+          <t>80.29</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0313</t>
+          <t>0.0232</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -2653,36 +1589,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005091</t>
+          <t>673143</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+          <t>西部利得景程灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>80.21</t>
+          <t>86.50</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0306</t>
+          <t>0.0195</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -2691,599 +1627,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001572</t>
+          <t>005496</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>嘉合磐石混合C</t>
+          <t>创金合信科技成长主题股票C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>23.60</t>
+          <t>84.91</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0259</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003238</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>新华外延增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0245</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>003501</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>87.21</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>007613</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>嘉合医疗健康混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>70.30</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>165522</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>信诚中证TMT产业主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0097</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>165524</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>信诚中证智能家居指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>008890</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>41.82</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>002334</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>006346</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>安信量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>006182</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>格林伯锐灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>91.62</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>006279</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中金瑞祥灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>79.22</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>006992</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>嘉合锦创优势精选混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>82.86</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>9.44</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006157</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>财通量化核心优选混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>006347</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>安信量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>89.93</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>002335</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>汇丰晋信大盘波动精选股票C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>006280</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>中金瑞祥灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>79.22</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3297,7 +1670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3318,7 +1691,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3348,32 +1721,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519772</t>
+          <t>008545</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银新生活力灵活配置混合</t>
+          <t>泓德丰润三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>128.26</t>
+          <t>111.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.32</t>
+          <t>94.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.5814</t>
+          <t>8.9493</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3386,36 +1759,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519736</t>
+          <t>011058</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银新成长混合</t>
+          <t>景顺长城成长龙头一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>163.34</t>
+          <t>106.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.63</t>
+          <t>91.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.2904</t>
+          <t>6.3017</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3424,32 +1797,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008545</t>
+          <t>001975</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泓德丰润三年持有期混合</t>
+          <t>景顺长城环保优势股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>125.64</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>93.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10.2899</t>
+          <t>5.1790</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3462,36 +1835,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008507</t>
+          <t>005395</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银施罗德内核驱动混合</t>
+          <t>泓德臻远回报灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>116.58</t>
+          <t>47.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.48</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9.2681</t>
+          <t>3.8948</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3500,32 +1873,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005395</t>
+          <t>010864</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泓德臻远回报灵活配置混合</t>
+          <t>泓德卓远混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>52.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8.4474</t>
+          <t>3.7952</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -3538,36 +1911,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519688</t>
+          <t>260101</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银精选混合</t>
+          <t>景顺长城优选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>131.09</t>
+          <t>73.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.26</t>
+          <t>77.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>8.1407</t>
+          <t>3.7681</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3586,26 +1959,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>71.07</t>
+          <t>40.38</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>94.14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6.3394</t>
+          <t>3.0850</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -3614,36 +1987,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519732</t>
+          <t>010003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>交银定期支付双息平衡混合</t>
+          <t>景顺长城电子信息产业股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>81.11</t>
+          <t>49.61</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>67.79</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5.4425</t>
+          <t>2.6988</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -3652,36 +2025,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010864</t>
+          <t>006435</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泓德卓远混合A</t>
+          <t>景顺长城创新成长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>70.38</t>
+          <t>40.16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5.2081</t>
+          <t>2.2329</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3700,26 +2073,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>48.00</t>
+          <t>26.13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>49.60</t>
+          <t>48.48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4.2480</t>
+          <t>2.0930</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -3728,36 +2101,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501087</t>
+          <t>501071</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+          <t>泓德三年运作丰泽封闭</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>53.07</t>
+          <t>21.26</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>95.91</t>
+          <t>88.88</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3.3965</t>
+          <t>1.4414</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -3766,36 +2139,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011058</t>
+          <t>010865</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>景顺长城成长龙头一年持有期混合A</t>
+          <t>泓德卓远混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>101.53</t>
+          <t>16.38</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.47</t>
+          <t>93.72</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3.1982</t>
+          <t>1.1859</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -3804,36 +2177,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000118</t>
+          <t>009376</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发聚鑫债券A</t>
+          <t>景顺长城成长领航混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>168.23</t>
+          <t>20.43</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.8263</t>
+          <t>1.1257</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -3842,36 +2215,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001975</t>
+          <t>519732</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>景顺长城环保优势股票</t>
+          <t>交银定期支付双息平衡混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>65.60</t>
+          <t>50.41</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>68.34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.7421</t>
+          <t>0.9578</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -3880,36 +2253,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>260101</t>
+          <t>011059</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>景顺长城优选混合</t>
+          <t>景顺长城成长龙头一年持有期混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>59.46</t>
+          <t>12.51</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>77.16</t>
+          <t>91.74</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.3487</t>
+          <t>0.7431</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -3918,36 +2291,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>501071</t>
+          <t>012475</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泓德三年运作丰泽封闭</t>
+          <t>平安优质企业混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>23.74</t>
+          <t>33.41</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>87.69</t>
+          <t>70.12</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8.42</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.9989</t>
+          <t>0.7183</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -3956,36 +2329,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010865</t>
+          <t>010004</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>泓德卓远混合C</t>
+          <t>景顺长城电子信息产业股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22.05</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.6317</t>
+          <t>0.5315</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -3994,36 +2367,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>519712</t>
+          <t>003501</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>交银阿尔法核心混合</t>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>59.83</t>
+          <t>13.32</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>76.69</t>
+          <t>73.40</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.5915</t>
+          <t>0.5048</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -4032,36 +2405,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>519697</t>
+          <t>002537</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>交银优势行业混合</t>
+          <t>平安安盈灵活配置混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>65.41</t>
+          <t>19.38</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>66.23</t>
+          <t>86.38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.5698</t>
+          <t>0.4923</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -4070,36 +2443,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010003</t>
+          <t>004966</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票A</t>
+          <t>泓德致远混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>27.03</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>48.48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.4083</t>
+          <t>0.2892</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -4108,36 +2481,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006435</t>
+          <t>513360</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>景顺长城创新成长混合</t>
+          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>37.79</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>99.64</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.4058</t>
+          <t>0.1770</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -4146,36 +2519,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>501092</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>交银施罗德瑞思三年封闭运作混合</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>62.68</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>76.29</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.2599</t>
+          <t>0.1723</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -4184,36 +2557,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009376</t>
+          <t>159725</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>景顺长城成长领航混合</t>
+          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>24.26</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>91.99</t>
+          <t>98.52</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.0141</t>
+          <t>0.0848</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -4222,36 +2595,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>004966</t>
+          <t>007305</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>泓德致远混合C</t>
+          <t>国联安新科技混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11.12</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>49.60</t>
+          <t>87.84</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.9841</t>
+          <t>0.0812</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -4260,36 +2633,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005001</t>
+          <t>673141</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>交银施罗德持续成长主题混合</t>
+          <t>西部利得景程灵活配置混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>22.96</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>75.16</t>
+          <t>89.59</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.5717</t>
+          <t>0.0732</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -4298,36 +2671,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>519700</t>
+          <t>011254</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>交银主题优选混合</t>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>16.36</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>70.57</t>
+          <t>91.33</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.3926</t>
+          <t>0.0325</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -4336,36 +2709,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>010004</t>
+          <t>012476</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票C</t>
+          <t>平安优质企业混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>70.12</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.3918</t>
+          <t>0.0243</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -4374,36 +2747,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>011059</t>
+          <t>673143</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>景顺长城成长龙头一年持有期混合C</t>
+          <t>西部利得景程灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11.57</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>79.47</t>
+          <t>89.59</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.3645</t>
+          <t>0.0172</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -4412,378 +2785,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>000119</t>
+          <t>011255</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>广发聚鑫债券C</t>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>15.66</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>91.33</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.2631</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009488</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>中邮价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>64.55</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0819</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006181</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>格林伯锐灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0605</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>159906</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>大成深证成长40ETF</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>97.88</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0440</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>003842</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>中邮景泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>25.69</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0411</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>009489</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中邮价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>64.55</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0276</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>006803</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>嘉实互通精选股票</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>81.83</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>003843</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>中邮景泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>25.69</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>006182</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>格林伯锐灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>006992</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>嘉合锦创优势精选混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>80.89</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5803,7 +3834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5824,7 +3855,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -5854,32 +3885,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008545</t>
+          <t>519772</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泓德丰润三年持有期混合</t>
+          <t>交银新生活力灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>111.31</t>
+          <t>128.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>91.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8.9493</t>
+          <t>10.5814</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -5892,36 +3923,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011058</t>
+          <t>519736</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城成长龙头一年持有期混合A</t>
+          <t>交银新成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>106.09</t>
+          <t>163.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>87.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6.3017</t>
+          <t>10.2904</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5930,32 +3961,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001975</t>
+          <t>008545</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城环保优势股票</t>
+          <t>泓德丰润三年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>125.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.39</t>
+          <t>93.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.1790</t>
+          <t>10.2899</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -5968,36 +3999,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005395</t>
+          <t>008507</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泓德臻远回报灵活配置混合</t>
+          <t>交银施罗德内核驱动混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>47.44</t>
+          <t>116.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>88.48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3.8948</t>
+          <t>9.2681</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -6006,32 +4037,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010864</t>
+          <t>005395</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泓德卓远混合A</t>
+          <t>泓德臻远回报灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>52.42</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.7952</t>
+          <t>8.4474</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -6044,36 +4075,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>260101</t>
+          <t>519688</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城优选混合</t>
+          <t>交银精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>73.31</t>
+          <t>131.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>87.26</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.7681</t>
+          <t>8.1407</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -6092,26 +4123,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>40.38</t>
+          <t>71.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>93.16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.0850</t>
+          <t>6.3394</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -6120,36 +4151,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010003</t>
+          <t>519732</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票A</t>
+          <t>交银定期支付双息平衡混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>49.61</t>
+          <t>81.11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>67.79</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.6988</t>
+          <t>5.4425</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -6158,36 +4189,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006435</t>
+          <t>010864</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>景顺长城创新成长混合</t>
+          <t>泓德卓远混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>40.16</t>
+          <t>70.38</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.99</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.2329</t>
+          <t>5.2081</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -6206,26 +4237,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>26.13</t>
+          <t>48.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>48.48</t>
+          <t>49.60</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.0930</t>
+          <t>4.2480</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -6234,36 +4265,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>501071</t>
+          <t>501087</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泓德三年运作丰泽封闭</t>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21.26</t>
+          <t>53.07</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88.88</t>
+          <t>95.91</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.4414</t>
+          <t>3.3965</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -6272,36 +4303,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010865</t>
+          <t>011058</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泓德卓远混合C</t>
+          <t>景顺长城成长龙头一年持有期混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16.38</t>
+          <t>101.53</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>79.47</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.1859</t>
+          <t>3.1982</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -6310,36 +4341,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009376</t>
+          <t>000118</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>景顺长城成长领航混合</t>
+          <t>广发聚鑫债券A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>20.43</t>
+          <t>168.23</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.1257</t>
+          <t>2.8263</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -6348,36 +4379,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>519732</t>
+          <t>001975</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>交银定期支付双息平衡混合</t>
+          <t>景顺长城环保优势股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>50.41</t>
+          <t>65.60</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>68.34</t>
+          <t>90.94</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.9578</t>
+          <t>2.7421</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -6386,36 +4417,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011059</t>
+          <t>260101</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>景顺长城成长龙头一年持有期混合C</t>
+          <t>景顺长城优选混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12.51</t>
+          <t>59.46</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>91.74</t>
+          <t>77.16</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.7431</t>
+          <t>2.3487</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -6424,36 +4455,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>012475</t>
+          <t>501071</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>平安优质企业混合型证券投资基金A</t>
+          <t>泓德三年运作丰泽封闭</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>33.41</t>
+          <t>23.74</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>70.12</t>
+          <t>87.69</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.7183</t>
+          <t>1.9989</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -6462,36 +4493,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010004</t>
+          <t>010865</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票C</t>
+          <t>泓德卓远混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>22.05</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.5315</t>
+          <t>1.6317</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -6500,36 +4531,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>003501</t>
+          <t>519712</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
+          <t>交银阿尔法核心混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13.32</t>
+          <t>59.83</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>73.40</t>
+          <t>76.69</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.5048</t>
+          <t>1.5915</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -6538,36 +4569,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002537</t>
+          <t>519697</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>平安安盈灵活配置混合</t>
+          <t>交银优势行业混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19.38</t>
+          <t>65.41</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>86.38</t>
+          <t>66.23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.4923</t>
+          <t>1.5698</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -6576,36 +4607,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>004966</t>
+          <t>010003</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>泓德致远混合C</t>
+          <t>景顺长城电子信息产业股票A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>27.03</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>48.48</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.2892</t>
+          <t>1.4083</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -6614,36 +4645,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>513360</t>
+          <t>006435</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
+          <t>景顺长城创新成长混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>37.79</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>99.64</t>
+          <t>91.97</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1770</t>
+          <t>1.4058</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -6652,36 +4683,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>501092</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>62.68</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>76.29</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.1723</t>
+          <t>1.2599</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -6690,36 +4721,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>159725</t>
+          <t>009376</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+          <t>景顺长城成长领航混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>24.26</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>98.52</t>
+          <t>91.99</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0848</t>
+          <t>1.0141</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -6728,36 +4759,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>007305</t>
+          <t>004966</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国联安新科技混合</t>
+          <t>泓德致远混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>11.12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>87.84</t>
+          <t>49.60</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0812</t>
+          <t>0.9841</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -6766,36 +4797,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>673141</t>
+          <t>005001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>西部利得景程灵活配置混合A</t>
+          <t>交银施罗德持续成长主题混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>22.96</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>89.59</t>
+          <t>75.16</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0732</t>
+          <t>0.5717</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -6804,36 +4835,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>011254</t>
+          <t>519700</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+          <t>交银主题优选混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>16.36</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>91.33</t>
+          <t>70.57</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0325</t>
+          <t>0.3926</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -6842,36 +4873,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>012476</t>
+          <t>010004</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>平安优质企业混合型证券投资基金C</t>
+          <t>景顺长城电子信息产业股票C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>70.12</t>
+          <t>91.98</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0243</t>
+          <t>0.3918</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -6880,36 +4911,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>673143</t>
+          <t>011059</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>西部利得景程灵活配置混合C</t>
+          <t>景顺长城成长龙头一年持有期混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>11.57</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>89.59</t>
+          <t>79.47</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.3645</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -6918,36 +4949,378 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>011255</t>
+          <t>000119</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+          <t>广发聚鑫债券C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>15.66</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>91.33</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.2631</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009488</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009489</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中邮价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>64.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006803</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实互通精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6961,7 +5334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6982,7 +5355,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -7012,36 +5385,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008545</t>
+          <t>519772</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泓德丰润三年持有期混合</t>
+          <t>交银新生活力灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.75</t>
+          <t>148.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>89.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.4156</t>
+          <t>10.9346</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -7050,36 +5423,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011058</t>
+          <t>008545</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城成长龙头一年持有期混合A</t>
+          <t>泓德丰润三年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>69.02</t>
+          <t>117.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.30</t>
+          <t>94.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.1481</t>
+          <t>10.8447</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -7088,36 +5461,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001975</t>
+          <t>005395</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城环保优势股票</t>
+          <t>泓德臻远回报灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>60.07</t>
+          <t>107.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.2798</t>
+          <t>10.6273</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7126,36 +5499,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>260101</t>
+          <t>008507</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城优选混合</t>
+          <t>交银施罗德内核驱动混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>60.02</t>
+          <t>131.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77.35</t>
+          <t>86.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.9470</t>
+          <t>9.0984</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -7164,36 +5537,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010864</t>
+          <t>001500</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>泓德卓远混合A</t>
+          <t>泓德远见回报混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>39.08</t>
+          <t>76.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.3839</t>
+          <t>7.5082</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -7202,36 +5575,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005395</t>
+          <t>519736</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泓德臻远回报灵活配置混合</t>
+          <t>交银新成长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>33.94</t>
+          <t>151.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>91.51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.2604</t>
+          <t>6.6140</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -7240,36 +5613,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006435</t>
+          <t>519688</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城创新成长混合</t>
+          <t>交银精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>41.63</t>
+          <t>128.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.1439</t>
+          <t>5.6280</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -7278,36 +5651,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001500</t>
+          <t>010864</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泓德远见回报混合</t>
+          <t>泓德卓远混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>26.71</t>
+          <t>66.11</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>8.26</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.7629</t>
+          <t>5.4607</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -7316,36 +5689,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004965</t>
+          <t>519732</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泓德致远混合A</t>
+          <t>交银定期支付双息平衡混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>86.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>46.32</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.2555</t>
+          <t>4.8205</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -7354,36 +5727,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010003</t>
+          <t>004965</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票A</t>
+          <t>泓德致远混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23.62</t>
+          <t>53.54</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>49.70</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.2141</t>
+          <t>4.6098</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -7392,36 +5765,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009376</t>
+          <t>001975</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>景顺长城成长领航混合</t>
+          <t>景顺长城环保优势股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15.37</t>
+          <t>49.57</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.8085</t>
+          <t>3.0535</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -7430,36 +5803,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010865</t>
+          <t>260101</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泓德卓远混合C</t>
+          <t>景顺长城优选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12.25</t>
+          <t>50.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.88</t>
+          <t>76.66</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.7472</t>
+          <t>2.6149</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -7468,36 +5841,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011059</t>
+          <t>501071</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>景顺长城成长龙头一年持有期混合C</t>
+          <t>泓德三年运作丰泽封闭</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>22.80</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>88.30</t>
+          <t>89.25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.4706</t>
+          <t>2.2116</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -7506,36 +5879,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010004</t>
+          <t>006435</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票C</t>
+          <t>景顺长城创新成长混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>31.57</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>91.69</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.3937</t>
+          <t>1.7900</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -7544,36 +5917,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>513360</t>
+          <t>010865</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>博时中证全球中国教育主题交易型开放式指数证券投资基金(QDII)</t>
+          <t>泓德卓远混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>20.99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>99.49</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>8.26</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.3503</t>
+          <t>1.7338</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -7582,36 +5955,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>162204</t>
+          <t>010003</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>泰达宏利行业精选混合</t>
+          <t>景顺长城电子信息产业股票A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>75.56</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2381</t>
+          <t>1.7094</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -7620,32 +5993,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004966</t>
+          <t>009376</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>泓德致远混合C</t>
+          <t>景顺长城成长领航混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>23.50</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>46.32</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1743</t>
+          <t>1.4452</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -7658,36 +6031,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>004966</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>泓德致远混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>11.87</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>49.70</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1512</t>
+          <t>1.0220</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -7696,36 +6069,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008988</t>
+          <t>010004</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大成科技创新混合A</t>
+          <t>景顺长城电子信息产业股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.66</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1306</t>
+          <t>0.4488</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7734,36 +6107,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>003501</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>73.79</t>
+          <t>90.58</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1060</t>
+          <t>0.0921</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -7772,36 +6145,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005495</t>
+          <t>006181</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票A</t>
+          <t>格林伯锐灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>84.91</t>
+          <t>91.62</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0702</t>
+          <t>0.0743</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -7810,36 +6183,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>673141</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>西部利得景程灵活配置混合A</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>86.50</t>
+          <t>93.43</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0679</t>
+          <t>0.0651</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -7848,36 +6221,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008989</t>
+          <t>159906</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大成科技创新混合C</t>
+          <t>大成深证成长40ETF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>91.66</t>
+          <t>97.95</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0547</t>
+          <t>0.0574</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -7886,36 +6259,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>159725</t>
+          <t>005090</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>工银瑞信中证线上消费主题交易型开放式指数证券投资基金</t>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>98.18</t>
+          <t>80.21</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0264</t>
+          <t>0.0568</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -7924,36 +6297,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002244</t>
+          <t>001571</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
+          <t>嘉合磐石混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>80.29</t>
+          <t>23.60</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0232</t>
+          <t>0.0313</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -7962,36 +6335,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>673143</t>
+          <t>005091</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>西部利得景程灵活配置混合C</t>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>86.50</t>
+          <t>80.21</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0195</t>
+          <t>0.0306</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -8000,36 +6373,599 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005496</t>
+          <t>001572</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>创金合信科技成长主题股票C</t>
+          <t>嘉合磐石混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>84.91</t>
+          <t>23.60</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0193</t>
+          <t>0.0259</t>
         </is>
       </c>
       <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>41.82</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8043,7 +6979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8054,17 +6990,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8074,14 +7030,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.66</v>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>160.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.9931</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -8090,14 +7068,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50.65</v>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>126.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.5644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -8106,14 +7106,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>62.24</v>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.3450</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -8122,14 +7144,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>38</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107.9</v>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>107.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.9258</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -8138,14 +7182,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>42</v>
-      </c>
-      <c r="D6" t="n">
-        <v>92.7</v>
+          <t>008507</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德内核驱动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>106.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.0311</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -8154,14 +7220,948 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D7" t="n">
-        <v>85.02</v>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>117.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.7815</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>105.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.2283</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4.1603</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.9520</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>62.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.8498</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.6246</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>49.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3811</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>46.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.2702</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.2199</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>38.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8034</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7761</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501092</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞思三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>64.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6074</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0531</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8334</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7822</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3665</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159906</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成深证成长40ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007316</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007317</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德可转债债券C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002841-视源股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002841-视源股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>31.66</v>
+        <v>26.95</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>50.65</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>62.24</v>
+        <v>50.65</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>107.9</v>
+        <v>62.24</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>92.7</v>
+        <v>107.9</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>30</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>85.02</v>
       </c>
     </row>
@@ -583,6 +600,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5061</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3011</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6982</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5427</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1659</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9880</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4800</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4317</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0588</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9390</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7666</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6687</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4265</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3389</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2940</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013280</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015601</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159728</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方国证在线消费ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华富中小企业100指数增强</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1664,7 +2839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2822,7 +3997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3828,7 +5003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5328,7 +6503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6973,7 +8148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002841-视源股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002841-视源股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>26.95</v>
+        <v>23.98</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>31.66</v>
+        <v>26.95</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>50.65</v>
+        <v>31.66</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>62.24</v>
+        <v>50.65</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>107.9</v>
+        <v>62.24</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>92.7</v>
+        <v>107.9</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>85.02</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.71</t>
+          <t>85.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.42</t>
+          <t>66.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.5061</t>
+          <t>3.6794</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -704,22 +721,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>51.58</t>
+          <t>48.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>92.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.3011</t>
+          <t>3.0631</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>49.69</t>
+          <t>44.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.36</t>
+          <t>76.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.6982</t>
+          <t>2.4646</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -780,26 +797,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44.53</t>
+          <t>40.92</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>92.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.5427</t>
+          <t>2.3488</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -818,26 +835,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>36.71</t>
+          <t>34.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.1659</t>
+          <t>2.0085</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -856,26 +873,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>29.76</t>
+          <t>34.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>92.14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.9880</t>
+          <t>1.9665</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -894,26 +911,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>22.84</t>
+          <t>25.76</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.4800</t>
+          <t>1.4683</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -932,26 +949,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.21</t>
+          <t>21.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>91.77</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.4317</t>
+          <t>1.4172</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -970,26 +987,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>18.10</t>
+          <t>18.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.74</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.0588</t>
+          <t>1.0563</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1008,26 +1025,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16.19</t>
+          <t>16.11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>46.90</t>
+          <t>48.70</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.9390</t>
+          <t>0.9312</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009376</t>
+          <t>010865</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>景顺长城成长领航混合</t>
+          <t>泓德卓远混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13.15</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.7666</t>
+          <t>0.6589</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010865</t>
+          <t>009376</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泓德卓远混合C</t>
+          <t>景顺长城成长领航混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.32</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>92.99</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.6687</t>
+          <t>0.6066</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1112,32 +1129,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010004</t>
+          <t>011059</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>景顺长城电子信息产业股票C</t>
+          <t>景顺长城成长龙头一年持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.74</t>
+          <t>92.92</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.4265</t>
+          <t>0.3690</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1150,32 +1167,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011059</t>
+          <t>003501</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>景顺长城成长龙头一年持有期混合C</t>
+          <t>泰达宏利睿智稳健灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>9.84</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>82.46</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.4038</t>
+          <t>0.3513</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1188,36 +1205,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003501</t>
+          <t>010004</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>泰达宏利睿智稳健灵活配置混合A</t>
+          <t>景顺长城电子信息产业股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>76.72</t>
+          <t>93.05</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.3389</t>
+          <t>0.3392</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1236,26 +1253,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>81.08</t>
+          <t>84.56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2940</t>
+          <t>0.2932</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1264,36 +1281,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>013280</t>
+          <t>513360</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>泰达宏利睿智稳健灵活配置混合C</t>
+          <t>博时中证全球中国教育主题ETF（QDII）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>76.72</t>
+          <t>99.23</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1958</t>
+          <t>0.2112</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1302,36 +1319,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>260111</t>
+          <t>013280</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>景顺长城公司治理混合</t>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>82.46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1788</t>
+          <t>0.1939</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1340,36 +1357,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>513360</t>
+          <t>260111</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>博时中证全球中国教育主题ETF（QDII）</t>
+          <t>景顺长城公司治理混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>99.43</t>
+          <t>91.54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1626</t>
+          <t>0.1622</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1388,26 +1405,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>46.90</t>
+          <t>48.70</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1473</t>
+          <t>0.1445</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1426,26 +1443,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>81.08</t>
+          <t>84.56</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.1417</t>
+          <t>0.1378</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1464,26 +1481,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0241</t>
+          <t>0.0218</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1492,36 +1509,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>159725</t>
+          <t>002244</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>工银瑞信中证线上消费主题ETF</t>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>98.42</t>
+          <t>73.32</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0221</t>
+          <t>0.0216</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1530,36 +1547,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002244</t>
+          <t>159725</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>景顺长城低碳科技主题灵活配置混合</t>
+          <t>工银瑞信中证线上消费主题ETF</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>62.99</t>
+          <t>97.99</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1578,26 +1595,26 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0137</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1616,26 +1633,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>99.99</t>
+          <t>99.75</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.0106</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1644,36 +1661,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001535</t>
+          <t>010404</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>景顺长城改革机遇灵活配置混合A</t>
+          <t>博道盛利6个月持有期混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>64.66</t>
+          <t>41.08</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0074</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1682,36 +1699,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>410010</t>
+          <t>001535</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华富中小企业100指数增强</t>
+          <t>景顺长城改革机遇灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>93.66</t>
+          <t>43.79</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0053</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1730,22 +1747,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>64.66</t>
+          <t>43.79</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0019</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1758,6 +1775,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5061</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3011</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6982</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5427</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1659</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9880</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4800</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4317</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0588</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9390</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7666</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6687</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4265</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3389</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2940</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013280</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>513360</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时中证全球中国教育主题ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015601</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159725</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信中证线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159728</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方国证在线消费ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>410010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华富中小企业100指数增强</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2839,7 +4014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3997,7 +5172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5003,7 +6178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6503,7 +7678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8148,7 +9323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
